--- a/backend/fms_core/static/submission_templates/Sample_transfer_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Sample_transfer_v4_4_0.xlsx
@@ -1948,10 +1948,12 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.67"/>
@@ -1964,7 +1966,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="38.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="54.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="54.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="16" style="0" width="9.33"/>
   </cols>
@@ -4336,13 +4338,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.4"/>
   </cols>
@@ -5548,7 +5550,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
